--- a/ACS712_AmMeter_Block_Diagram.xlsx
+++ b/ACS712_AmMeter_Block_Diagram.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\nerdfloor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\nerdfloor\Documents\Develop\ACS712_AmMeter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39769C8-D6DA-48C4-8091-5266267ED87D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C742F97-66E2-49D5-9BAE-619CFB939884}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="195" windowWidth="20610" windowHeight="14940" xr2:uid="{ACC2928B-AA62-467B-931D-1973710DA547}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACC2928B-AA62-467B-931D-1973710DA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>IN</t>
     <phoneticPr fontId="1"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2020.01.05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>デジタル系</t>
     <rPh sb="4" eb="5">
       <t>ケイ</t>
@@ -110,6 +106,22 @@
     <rPh sb="0" eb="3">
       <t>デンゲンケイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020.01.19</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -761,21 +773,21 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="楕円 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22A66B0-3F69-40B6-B463-F13E2BC016FB}"/>
+        <xdr:cNvPr id="11" name="楕円 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34995DB-B6B9-4AF7-AEA1-0BC09E48D853}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -783,7 +795,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4400550" y="4400550"/>
+          <a:off x="4400550" y="5600700"/>
           <a:ext cx="400050" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -819,23 +831,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="楕円 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34995DB-B6B9-4AF7-AEA1-0BC09E48D853}"/>
+        <xdr:cNvPr id="12" name="楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D82F25-549A-4DD1-A297-A8DC11B8F5E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -843,7 +855,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4400550" y="5600700"/>
+          <a:off x="9001125" y="3200400"/>
           <a:ext cx="400050" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -879,76 +891,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="楕円 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D82F25-549A-4DD1-A297-A8DC11B8F5E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9001125" y="3200400"/>
-          <a:ext cx="400050" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -963,8 +915,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9001125" y="4400550"/>
-          <a:ext cx="400050" cy="400050"/>
+          <a:off x="10929938" y="6274595"/>
+          <a:ext cx="404813" cy="404812"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1907,62 +1859,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5A80358-7822-439D-AC3E-0EECD3D8CFC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="6"/>
-          <a:endCxn id="13" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800600" y="4600575"/>
-          <a:ext cx="7000875" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>164225</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -3352,59 +3248,6 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="172" name="直線矢印コネクタ 171">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBCEA3D4-CBA1-4F63-A6FA-37E4CBE39368}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2226469" y="6477000"/>
-          <a:ext cx="607219" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
@@ -3692,6 +3535,578 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>2384</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7862E54-FA22-4F4A-9713-5D491228CF82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11337134" y="4655345"/>
+          <a:ext cx="1414460" cy="3845718"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Load</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="楕円 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF8BCF0-64A1-4793-9F5E-6E6B8C6A31FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10929938" y="5060157"/>
+          <a:ext cx="404813" cy="404813"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="楕円 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61B0172-C85E-4579-A2C1-E4E1B658782B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10929938" y="7489032"/>
+          <a:ext cx="404813" cy="404813"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>188120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>188120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BF63BE-A185-429F-AE64-91E64296AE18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10322719" y="5248276"/>
+          <a:ext cx="607219" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線矢印コネクタ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D632C8A-35AC-4CDC-A64B-B9BF3587F13D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10322719" y="7691438"/>
+          <a:ext cx="607219" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="コネクタ: カギ線 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2472F79E-8526-4D11-9E53-E7A531B1A53A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2428875" y="6477000"/>
+          <a:ext cx="8501063" cy="2631281"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 96499"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>202405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>202405</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="コネクタ: カギ線 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C809CF-2671-4DE4-82E6-040C90026CAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1012032" y="7691437"/>
+          <a:ext cx="2631281" cy="202406"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 226"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>134937</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="二等辺三角形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85799EDF-32CC-4FE7-9F9F-6A9AAAD26E58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3508374" y="2079626"/>
+          <a:ext cx="809625" cy="674688"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DIV</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>134937</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="コネクタ: カギ線 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DDCCB43-EF33-482E-82BA-478DC6D03A91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="78" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3008311" y="1849438"/>
+          <a:ext cx="1012033" cy="123031"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6AD59C5-77A8-46A2-85B6-6590319E15C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="78" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4250531" y="2416971"/>
+          <a:ext cx="2024063" cy="11904"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3999,8 +4414,8 @@
   </sheetPr>
   <dimension ref="B2:BD40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:BH45"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:BM47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4012,17 +4427,17 @@
     </row>
     <row r="3" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BD5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="BD6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4030,7 +4445,7 @@
         <v>8</v>
       </c>
       <c r="BD7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4041,7 +4456,7 @@
         <v>10</v>
       </c>
       <c r="BD8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4060,12 +4475,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="10:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="T24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="10:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J25" t="s">
         <v>3</v>
       </c>
@@ -4078,13 +4493,16 @@
       <c r="AX25" t="s">
         <v>3</v>
       </c>
+      <c r="BC25" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="27" spans="10:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="T27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="10:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J28" t="s">
         <v>7</v>
       </c>
@@ -4095,34 +4513,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="10:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J31" t="s">
         <v>4</v>
       </c>
-      <c r="O31" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX31" t="s">
-        <v>4</v>
+      <c r="BC31" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="34" spans="10:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J34" t="s">
         <v>7</v>
       </c>
-      <c r="O34" t="s">
-        <v>6</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="36" spans="10:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="T36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="10:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J37" t="s">
         <v>5</v>
       </c>
@@ -4135,13 +4544,16 @@
       <c r="AX37" t="s">
         <v>5</v>
       </c>
+      <c r="BC37" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="39" spans="10:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="T39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="10:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J40" t="s">
         <v>7</v>
       </c>
@@ -4155,7 +4567,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ACS712_AmMeter_Block_Diagram.xlsx
+++ b/ACS712_AmMeter_Block_Diagram.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\nerdfloor\Documents\Develop\ACS712_AmMeter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C742F97-66E2-49D5-9BAE-619CFB939884}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AABA5F-AECC-42C1-92DC-31494499CAD2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACC2928B-AA62-467B-931D-1973710DA547}"/>
+    <workbookView xWindow="2505" yWindow="660" windowWidth="20610" windowHeight="14940" xr2:uid="{ACC2928B-AA62-467B-931D-1973710DA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>IN</t>
     <phoneticPr fontId="1"/>
@@ -121,7 +121,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2020.01.19</t>
+    <t>Push SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CAL_SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020.01.25</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -207,14 +215,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -229,8 +237,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3036094" y="809625"/>
-          <a:ext cx="7084219" cy="7893844"/>
+          <a:off x="3000375" y="600076"/>
+          <a:ext cx="7000875" cy="8801100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -267,13 +275,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -327,13 +335,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -405,13 +413,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -465,13 +473,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -525,13 +533,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -585,13 +593,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -649,13 +657,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -713,13 +721,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -773,13 +781,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -833,13 +841,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -893,13 +901,13 @@
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -953,13 +961,13 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1013,13 +1021,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1077,13 +1085,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4305</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1141,13 +1149,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1201,13 +1209,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1265,13 +1273,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1325,13 +1333,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1385,13 +1393,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1445,13 +1453,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1505,13 +1513,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1565,13 +1573,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>122634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>122634</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1625,13 +1633,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1693,13 +1701,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1748,13 +1756,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1806,13 +1814,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1861,13 +1869,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>164225</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>101203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>105104</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1914,13 +1922,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190969</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>118711</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1967,13 +1975,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2024,13 +2032,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2080,13 +2088,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>22622</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2135,13 +2143,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2199,13 +2207,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2263,13 +2271,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2325,15 +2333,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2349,8 +2357,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7691438" y="1214438"/>
-          <a:ext cx="1214438" cy="607218"/>
+          <a:off x="7600949" y="2000250"/>
+          <a:ext cx="600076" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2391,13 +2399,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>176894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2455,13 +2463,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2513,13 +2521,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2571,13 +2579,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2626,13 +2634,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2679,13 +2687,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2732,13 +2740,13 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>102054</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2785,16 +2793,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>88447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>101203</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2812,8 +2820,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8905876" y="1505291"/>
-          <a:ext cx="1214436" cy="12756"/>
+          <a:off x="8201025" y="2288722"/>
+          <a:ext cx="400049" cy="11566"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2843,13 +2851,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>11908</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>202405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>101202</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2896,13 +2904,13 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2960,13 +2968,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>50007</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2982,8 +2990,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9108281" y="2024063"/>
-          <a:ext cx="657226" cy="607218"/>
+          <a:off x="7600950" y="2800350"/>
+          <a:ext cx="600075" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3023,15 +3031,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>50007</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>101203</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>101203</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3049,8 +3057,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9765507" y="2327672"/>
-          <a:ext cx="557212" cy="0"/>
+          <a:off x="8201025" y="3100388"/>
+          <a:ext cx="600075" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3080,13 +3088,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>4305</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3136,13 +3144,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3192,13 +3200,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3248,13 +3256,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3301,13 +3309,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3361,13 +3369,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3421,13 +3429,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3481,13 +3489,13 @@
     <xdr:from>
       <xdr:col>53</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3541,13 +3549,13 @@
     <xdr:from>
       <xdr:col>56</xdr:col>
       <xdr:colOff>2384</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3605,13 +3613,13 @@
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3665,13 +3673,13 @@
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3725,13 +3733,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>188120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>188120</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3778,13 +3786,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3831,13 +3839,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3886,13 +3894,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>202405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>202405</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3939,13 +3947,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>134937</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4003,13 +4011,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>134937</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4058,13 +4066,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>190502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4101,6 +4109,185 @@
         </a:fillRef>
         <a:effectRef idx="2">
           <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA4A89D-5B66-49D3-99ED-AB7285813FBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="2000250"/>
+          <a:ext cx="1200150" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GPIO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="楕円 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5503E6-D91B-406C-AD8E-0FC1CFB0FE9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800350" y="1000125"/>
+          <a:ext cx="400050" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D392AA-23D1-4EC3-8AED-63FB191389F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="1200150"/>
+          <a:ext cx="3600450" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -4412,10 +4599,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BD40"/>
+  <dimension ref="B2:BD44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:BM47"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4427,140 +4614,150 @@
     </row>
     <row r="3" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BD5" t="s">
+    <row r="9" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BD9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="BD6" t="s">
+    <row r="10" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BD10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AB7" t="s">
+    <row r="11" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AB11" t="s">
         <v>8</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BD11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K8" t="s">
+    <row r="12" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K12" t="s">
         <v>10</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R12" t="s">
         <v>10</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BD12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="O9" t="s">
+    <row r="13" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W10" t="s">
+    <row r="14" spans="2:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="W14" t="s">
         <v>8</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y14" t="s">
         <v>8</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="T24" t="s">
+    <row r="28" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="T28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J25" t="s">
+    <row r="29" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J29" t="s">
         <v>3</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O29" t="s">
         <v>3</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AF29" t="s">
         <v>2</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="AX29" t="s">
         <v>3</v>
       </c>
-      <c r="BC25" t="s">
+      <c r="BC29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="T27" t="s">
+    <row r="31" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="T31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J28" t="s">
+    <row r="32" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J32" t="s">
         <v>7</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O32" t="s">
         <v>6</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="AX32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J31" t="s">
+    <row r="35" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J35" t="s">
         <v>4</v>
       </c>
-      <c r="BC31" t="s">
+      <c r="BC35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J34" t="s">
+    <row r="38" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="T36" t="s">
+    <row r="40" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="T40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J37" t="s">
+    <row r="41" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J41" t="s">
         <v>5</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O41" t="s">
         <v>5</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AF41" t="s">
         <v>2</v>
       </c>
-      <c r="AX37" t="s">
+      <c r="AX41" t="s">
         <v>5</v>
       </c>
-      <c r="BC37" t="s">
+      <c r="BC41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="T39" t="s">
+    <row r="43" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="T43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J40" t="s">
+    <row r="44" spans="10:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J44" t="s">
         <v>7</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O44" t="s">
         <v>6</v>
       </c>
-      <c r="AX40" t="s">
+      <c r="AX44" t="s">
         <v>7</v>
       </c>
     </row>

--- a/ACS712_AmMeter_Block_Diagram.xlsx
+++ b/ACS712_AmMeter_Block_Diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\nerdfloor\Documents\Develop\ACS712_AmMeter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AABA5F-AECC-42C1-92DC-31494499CAD2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE55937-84C4-4FF3-8954-CAA7AE507E04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="660" windowWidth="20610" windowHeight="14940" xr2:uid="{ACC2928B-AA62-467B-931D-1973710DA547}"/>
+    <workbookView xWindow="840" yWindow="105" windowWidth="18300" windowHeight="14940" xr2:uid="{ACC2928B-AA62-467B-931D-1973710DA547}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4601,8 +4601,8 @@
   </sheetPr>
   <dimension ref="B2:BD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:BL50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
